--- a/2017年迪培斯厂家参展名单.xlsx
+++ b/2017年迪培斯厂家参展名单.xlsx
@@ -27,18 +27,266 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江门市品瑞光电有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东莞市嘉灵精密五金有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市当旭展示设备有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳亮泽展示用品有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E69-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E72，E94-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州派特灯箱器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市心塑广告器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市南海国邦铝制品有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F04-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市易携展示器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山相甲展示器材制品厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F06-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州赛母特展示器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F07-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州悠广光电科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F102-103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州怡高光电科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F111-115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山市顺德区伦教准发木工机械厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F122-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市雪亮照明有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江门市三叶展示器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市启尚展览展示有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F18-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市禾力广告器材厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市白云区伟群旗帜厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F20-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省佛山市南海顶派铝业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F28-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州市瑞和兴光电科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F28-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山市秀可广告用品有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F29-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市航派展示器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F29-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州一展通展览展示器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鸿亚克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州博达展示器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市联万微照明科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州鑫彩广告装饰材料有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州亿豪广告铝型材基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F95-101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市海纳展览展示器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市飞祥广告材料有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市科之达广告器材有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年isle参展厂家名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017年D.PES参展厂家名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>展位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>珠海金伟光电科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.5C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>江门市品瑞光电有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A143</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>展位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深圳市凯丽特光电有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,14 +371,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>B17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>深圳市康耐思科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东莞市嘉灵精密五金有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州乾弘广告设备有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -688,242 +924,6 @@
   </si>
   <si>
     <t>E67-68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市当旭展示设备有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳亮泽展示用品有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E69-70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E72，E94-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州派特灯箱器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市心塑广告器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市南海国邦铝制品有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F04-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市易携展示器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山相甲展示器材制品厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F06-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州赛母特展示器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F07-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州悠广光电科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F102-103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州怡高光电科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F111-115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山市顺德区伦教准发木工机械厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F122-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市雪亮照明有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江门市三叶展示器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市启尚展览展示有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F18-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市禾力广告器材厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市白云区伟群旗帜厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F20-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东省佛山市南海顶派铝业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F28-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠州市瑞和兴光电科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F28-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山市秀可广告用品有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F29-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市航派展示器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F29-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州一展通展览展示器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新鸿亚克力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州博达展示器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市联万微照明科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州鑫彩广告装饰材料有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州亿豪广告铝型材基地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F95-101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市海纳展览展示器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市飞祥广告材料有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市科之达广告器材有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年isle参展厂家名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +931,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,8 +947,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,13 +970,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -976,12 +1032,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,917 +1331,924 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B113"/>
+  <dimension ref="G3:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.875" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="43.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="3" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G73" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G77" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G78" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G84" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G85" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H91" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G92" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H92" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H93" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G94" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H94" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H95" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G96" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="H96" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="H97" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G98" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="H98" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G99" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="H99" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G100" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="H100" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="H101" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="H102" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="H103" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="H104" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G105" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="H105" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G106" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="H106" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G107" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="H107" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G108" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="H108" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G109" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="H109" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G110" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="H110" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G111" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="H111" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G112" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="H112" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G113" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="H113" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G114" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="H114" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G115" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="H115" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>172</v>
-      </c>
-      <c r="B88" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>176</v>
-      </c>
-      <c r="B90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>188</v>
-      </c>
-      <c r="B96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>204</v>
-      </c>
-      <c r="B104" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>212</v>
-      </c>
-      <c r="B108" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>216</v>
-      </c>
-      <c r="B110" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
-        <v>222</v>
-      </c>
-      <c r="B113" t="s">
-        <v>223</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2192,7 +2267,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
